--- a/程序用_正式版_对照版/PlayerTalent.xlsx
+++ b/程序用_正式版_对照版/PlayerTalent.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24907"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfireadventure\Config\tables_ctrl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9AD46A-74F1-4ABA-8416-78F5928075B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7078DBFE-604D-4B23-BB89-D1903ECACE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="390" windowWidth="29880" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2880" yWindow="990" windowWidth="22620" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerTalent" sheetId="1" r:id="rId1"/>
@@ -273,7 +273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="42">
   <si>
     <t>RepeatCheck:true MakeIndex:true</t>
   </si>
@@ -296,16 +296,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Health</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Health|Health</t>
-  </si>
-  <si>
-    <t>Health|Health|Attack</t>
-  </si>
-  <si>
     <t>StoneCost</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -346,24 +336,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>40|40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40|40|40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[]int32</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>40|40</t>
-  </si>
-  <si>
-    <t>40|40|40</t>
-  </si>
-  <si>
     <t>Attack</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -378,6 +354,70 @@
   <si>
     <t>唯一ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|5|5</t>
+  </si>
+  <si>
+    <t>[]float</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Health|Health|Health</t>
+  </si>
+  <si>
+    <t>8|8|8</t>
+  </si>
+  <si>
+    <t>20|20|20</t>
+  </si>
+  <si>
+    <t>40|40|40</t>
+  </si>
+  <si>
+    <t>60|60|60</t>
+  </si>
+  <si>
+    <t>80|80|80</t>
+  </si>
+  <si>
+    <t>100|100|100</t>
+  </si>
+  <si>
+    <t>120|120|120</t>
+  </si>
+  <si>
+    <t>160|160|160</t>
+  </si>
+  <si>
+    <t>200|200|200</t>
+  </si>
+  <si>
+    <t>240|240|240</t>
+  </si>
+  <si>
+    <t>280|280|280</t>
+  </si>
+  <si>
+    <t>320|320|320</t>
+  </si>
+  <si>
+    <t>360|360|360</t>
+  </si>
+  <si>
+    <t>400|400|400</t>
+  </si>
+  <si>
+    <t>440|440|440</t>
+  </si>
+  <si>
+    <t>3|3|3</t>
+  </si>
+  <si>
+    <t>6|6|6</t>
+  </si>
+  <si>
+    <t>16|16|16</t>
   </si>
 </sst>
 </file>
@@ -900,7 +940,7 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -916,25 +956,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -948,16 +988,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -985,25 +1025,25 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1011,22 +1051,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="4">
-        <v>40</v>
-      </c>
       <c r="E5" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F5" s="4">
-        <v>40</v>
+        <v>16</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="G5" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1034,22 +1074,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="4">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="E6" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F6" s="4">
-        <v>40</v>
+        <v>40</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="G6" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1057,22 +1097,22 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="4">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="E7" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F7" s="4">
-        <v>40</v>
+        <v>80</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="G7" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1080,22 +1120,22 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E8" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F8" s="4">
-        <v>40</v>
+        <v>120</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="G8" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1103,22 +1143,22 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E9" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="4">
-        <v>40</v>
+        <v>160</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="G9" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1126,22 +1166,22 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E10" s="4">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G10" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1149,19 +1189,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4">
+        <v>240</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="G11" s="4">
         <v>20</v>
@@ -1172,19 +1212,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="4">
+        <v>320</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="G12" s="4">
         <v>20</v>
@@ -1195,19 +1235,19 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="4">
+        <v>400</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="G13" s="4">
         <v>20</v>
@@ -1218,19 +1258,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="4">
+        <v>480</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="G14" s="4">
         <v>20</v>
@@ -1241,22 +1281,22 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="E15" s="4">
-        <v>1000</v>
+        <v>560</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G15" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1264,22 +1304,22 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E16" s="4">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G16" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1287,22 +1327,22 @@
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="E17" s="4">
-        <v>1000</v>
+        <v>720</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G17" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1310,22 +1350,22 @@
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E18" s="4">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G18" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1333,22 +1373,22 @@
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E19" s="4">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G19" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1356,22 +1396,22 @@
         <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E20" s="4">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G20" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1379,22 +1419,22 @@
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E21" s="4">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G21" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1402,22 +1442,22 @@
         <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E22" s="4">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G22" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1425,22 +1465,22 @@
         <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E23" s="4">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G23" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1448,22 +1488,22 @@
         <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E24" s="4">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G24" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1471,22 +1511,22 @@
         <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="4">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E25" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F25" s="4">
-        <v>40</v>
+        <v>880</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="G25" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1494,22 +1534,22 @@
         <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" s="4">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E26" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F26" s="4">
-        <v>40</v>
+        <v>880</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="G26" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1517,22 +1557,22 @@
         <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="4">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E27" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F27" s="4">
-        <v>40</v>
+        <v>880</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="G27" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1540,22 +1580,22 @@
         <v>24</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="4">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E28" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F28" s="4">
-        <v>40</v>
+        <v>880</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="G28" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1563,22 +1603,22 @@
         <v>25</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D29" s="4">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E29" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F29" s="4">
-        <v>40</v>
+        <v>880</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="G29" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1586,22 +1626,22 @@
         <v>26</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E30" s="4">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G30" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1609,22 +1649,22 @@
         <v>27</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E31" s="4">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G31" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1632,22 +1672,22 @@
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E32" s="4">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G32" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1655,22 +1695,22 @@
         <v>29</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E33" s="4">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G33" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1678,22 +1718,22 @@
         <v>30</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E34" s="4">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G34" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1701,22 +1741,22 @@
         <v>31</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E35" s="4">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G35" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1724,22 +1764,22 @@
         <v>32</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E36" s="4">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G36" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1747,22 +1787,22 @@
         <v>33</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E37" s="4">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G37" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1770,22 +1810,22 @@
         <v>34</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E38" s="4">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G38" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1793,22 +1833,22 @@
         <v>35</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E39" s="4">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G39" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1816,22 +1856,22 @@
         <v>36</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E40" s="4">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G40" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1839,22 +1879,22 @@
         <v>37</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E41" s="4">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G41" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1862,22 +1902,22 @@
         <v>38</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E42" s="4">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G42" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1885,22 +1925,22 @@
         <v>39</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E43" s="4">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G43" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1908,22 +1948,22 @@
         <v>40</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="E44" s="4">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="G44" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1931,22 +1971,22 @@
         <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" s="4">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E45" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F45" s="4">
-        <v>40</v>
+        <v>880</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="G45" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1954,22 +1994,22 @@
         <v>42</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="4">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E46" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F46" s="4">
-        <v>40</v>
+        <v>880</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="G46" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1977,22 +2017,22 @@
         <v>43</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="4">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E47" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F47" s="4">
-        <v>40</v>
+        <v>880</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="G47" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2000,22 +2040,22 @@
         <v>44</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D48" s="4">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E48" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F48" s="4">
-        <v>40</v>
+        <v>880</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="G48" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2023,22 +2063,22 @@
         <v>45</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D49" s="4">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="E49" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F49" s="4">
-        <v>40</v>
+        <v>880</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="G49" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2046,22 +2086,22 @@
         <v>46</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E50" s="4">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G50" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2069,22 +2109,22 @@
         <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E51" s="4">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G51" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2092,22 +2132,22 @@
         <v>48</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E52" s="4">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G52" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2115,22 +2155,22 @@
         <v>49</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E53" s="4">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G53" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2138,22 +2178,22 @@
         <v>50</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E54" s="4">
-        <v>1000</v>
+        <v>880</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="G54" s="4">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -2384,7 +2424,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25"/>

--- a/程序用_正式版_对照版/PlayerTalent.xlsx
+++ b/程序用_正式版_对照版/PlayerTalent.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\GunfireAdventure\gunfireadventure\Config\tables_ctrl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7078DBFE-604D-4B23-BB89-D1903ECACE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10CAF2C-39C0-40CC-9A70-924384B278F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="990" windowWidth="22620" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="705" windowWidth="32055" windowHeight="19860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerTalent" sheetId="1" r:id="rId1"/>
@@ -138,14 +138,319 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-Attack                  攻击
-Health                  生命值
-CritHitRate             暴击率
-CritHitScale            暴击伤害
-Defense                 防御
-SkillCD                 主动技能cd
-HeadshotScale           弱点伤害倍率
-SprintCD                冲刺技能cd</t>
+None                      0  P0    无
+Attack                    1  P1    攻击力
+Health                    2  P2    生命值上限
+Armor                     3  P3    护甲
+DamageScale               4  P4    伤害减免/伤害增加
+FinalDamageScale          5  P5    最终伤害增加/减少
+WeaknessDamageScale       6  P6    弱点攻击倍率
+CriticalDamageSacle       7  P7    暴击伤害
+CriticalDamageRate        8  P8    暴击率
+MoveSpeed                 9  P9    移动速度
+MinjorSkillCD             10  P10  主动技能冷却时间
+SprintSkillCD             11  P11  冲刺技能冷却时间</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="1" shapeId="0" xr:uid="{2D783622-E21C-4A8A-AF47-8A53F57498F8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>86176:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">None                      0  P0    </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">无
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Attack                    1  P1    </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">攻击力
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Health                    2  P2    </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">生命值上限
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Armor                     3  P3    </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">护甲
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">DamageScale               4  P4    </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>伤害减免</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">伤害增加
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">FinalDamageScale          5  P5    </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>最终伤害增加</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>/</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">减少
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">WeaknessDamageScale       6  P6    </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">弱点攻击倍率
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">CriticalDamageSacle       7  P7    </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">暴击伤害
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">CriticalDamageRate        8  P8    </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">暴击率
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">MoveSpeed                 9  P9    </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">移动速度
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">MinjorSkillCD             10  P10  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">主动技能冷却时间
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">SprintSkillCD             11  P11  </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>冲刺技能冷却时间</t>
         </r>
       </text>
     </comment>
@@ -292,18 +597,10 @@
     <t>ListSpliter: "|"</t>
   </si>
   <si>
-    <t>金币线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>StoneCost</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>魂石线</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>GoldLine</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -418,13 +715,21 @@
   </si>
   <si>
     <t>16|16|16</t>
+  </si>
+  <si>
+    <t>金币线(Max:4个)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>魂石线(Max:4个)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -523,6 +828,19 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -940,7 +1258,7 @@
   <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -956,25 +1274,25 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -988,16 +1306,16 @@
         <v>3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1025,25 +1343,25 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1051,19 +1369,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" s="4">
         <v>16</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G5" s="4">
         <v>5</v>
@@ -1074,19 +1392,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E6" s="4">
         <v>40</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6" s="4">
         <v>5</v>
@@ -1097,19 +1415,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="4">
         <v>80</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G7" s="4">
         <v>5</v>
@@ -1120,19 +1438,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4">
         <v>120</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8" s="4">
         <v>5</v>
@@ -1143,19 +1461,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4">
         <v>160</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" s="4">
         <v>10</v>
@@ -1166,19 +1484,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E10" s="4">
         <v>200</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G10" s="4">
         <v>10</v>
@@ -1189,19 +1507,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E11" s="4">
         <v>240</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G11" s="4">
         <v>20</v>
@@ -1212,19 +1530,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="4">
         <v>320</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G12" s="4">
         <v>20</v>
@@ -1235,19 +1553,19 @@
         <v>9</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13" s="4">
         <v>400</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G13" s="4">
         <v>20</v>
@@ -1258,19 +1576,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14" s="4">
         <v>480</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G14" s="4">
         <v>20</v>
@@ -1281,19 +1599,19 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" s="4">
         <v>560</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G15" s="4">
         <v>40</v>
@@ -1304,19 +1622,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E16" s="4">
         <v>640</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G16" s="4">
         <v>40</v>
@@ -1327,19 +1645,19 @@
         <v>13</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E17" s="4">
         <v>720</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G17" s="4">
         <v>40</v>
@@ -1350,19 +1668,19 @@
         <v>14</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E18" s="4">
         <v>800</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G18" s="4">
         <v>40</v>
@@ -1373,19 +1691,19 @@
         <v>15</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E19" s="4">
         <v>880</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G19" s="4">
         <v>40</v>
@@ -1396,19 +1714,19 @@
         <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E20" s="4">
         <v>880</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G20" s="4">
         <v>40</v>
@@ -1419,19 +1737,19 @@
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E21" s="4">
         <v>880</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G21" s="4">
         <v>40</v>
@@ -1442,19 +1760,19 @@
         <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E22" s="4">
         <v>880</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G22" s="4">
         <v>40</v>
@@ -1465,19 +1783,19 @@
         <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E23" s="4">
         <v>880</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G23" s="4">
         <v>40</v>
@@ -1488,19 +1806,19 @@
         <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E24" s="4">
         <v>880</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G24" s="4">
         <v>40</v>
@@ -1511,19 +1829,19 @@
         <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E25" s="4">
         <v>880</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G25" s="4">
         <v>40</v>
@@ -1534,19 +1852,19 @@
         <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E26" s="4">
         <v>880</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G26" s="4">
         <v>40</v>
@@ -1557,19 +1875,19 @@
         <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E27" s="4">
         <v>880</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G27" s="4">
         <v>40</v>
@@ -1580,19 +1898,19 @@
         <v>24</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E28" s="4">
         <v>880</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G28" s="4">
         <v>40</v>
@@ -1603,19 +1921,19 @@
         <v>25</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E29" s="4">
         <v>880</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G29" s="4">
         <v>40</v>
@@ -1626,19 +1944,19 @@
         <v>26</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E30" s="4">
         <v>880</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G30" s="4">
         <v>40</v>
@@ -1649,19 +1967,19 @@
         <v>27</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E31" s="4">
         <v>880</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G31" s="4">
         <v>40</v>
@@ -1672,19 +1990,19 @@
         <v>28</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E32" s="4">
         <v>880</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G32" s="4">
         <v>40</v>
@@ -1695,19 +2013,19 @@
         <v>29</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E33" s="4">
         <v>880</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G33" s="4">
         <v>40</v>
@@ -1718,19 +2036,19 @@
         <v>30</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E34" s="4">
         <v>880</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G34" s="4">
         <v>40</v>
@@ -1741,19 +2059,19 @@
         <v>31</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E35" s="4">
         <v>880</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G35" s="4">
         <v>40</v>
@@ -1764,19 +2082,19 @@
         <v>32</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E36" s="4">
         <v>880</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G36" s="4">
         <v>40</v>
@@ -1787,19 +2105,19 @@
         <v>33</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E37" s="4">
         <v>880</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G37" s="4">
         <v>40</v>
@@ -1810,19 +2128,19 @@
         <v>34</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E38" s="4">
         <v>880</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G38" s="4">
         <v>40</v>
@@ -1833,19 +2151,19 @@
         <v>35</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E39" s="4">
         <v>880</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G39" s="4">
         <v>40</v>
@@ -1856,19 +2174,19 @@
         <v>36</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E40" s="4">
         <v>880</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G40" s="4">
         <v>40</v>
@@ -1879,19 +2197,19 @@
         <v>37</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E41" s="4">
         <v>880</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G41" s="4">
         <v>40</v>
@@ -1902,19 +2220,19 @@
         <v>38</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E42" s="4">
         <v>880</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G42" s="4">
         <v>40</v>
@@ -1925,19 +2243,19 @@
         <v>39</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E43" s="4">
         <v>880</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G43" s="4">
         <v>40</v>
@@ -1948,19 +2266,19 @@
         <v>40</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E44" s="4">
         <v>880</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G44" s="4">
         <v>40</v>
@@ -1971,19 +2289,19 @@
         <v>41</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E45" s="4">
         <v>880</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G45" s="4">
         <v>40</v>
@@ -1994,19 +2312,19 @@
         <v>42</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E46" s="4">
         <v>880</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G46" s="4">
         <v>40</v>
@@ -2017,19 +2335,19 @@
         <v>43</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E47" s="4">
         <v>880</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G47" s="4">
         <v>40</v>
@@ -2040,19 +2358,19 @@
         <v>44</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E48" s="4">
         <v>880</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G48" s="4">
         <v>40</v>
@@ -2063,19 +2381,19 @@
         <v>45</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E49" s="4">
         <v>880</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G49" s="4">
         <v>40</v>
@@ -2086,19 +2404,19 @@
         <v>46</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E50" s="4">
         <v>880</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G50" s="4">
         <v>40</v>
@@ -2109,19 +2427,19 @@
         <v>47</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E51" s="4">
         <v>880</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G51" s="4">
         <v>40</v>
@@ -2132,19 +2450,19 @@
         <v>48</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E52" s="4">
         <v>880</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G52" s="4">
         <v>40</v>
@@ -2155,19 +2473,19 @@
         <v>49</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E53" s="4">
         <v>880</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G53" s="4">
         <v>40</v>
@@ -2178,19 +2496,19 @@
         <v>50</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E54" s="4">
         <v>880</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G54" s="4">
         <v>40</v>
@@ -2424,7 +2742,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25"/>
